--- a/pred_ohlcv/54_21/2020-01-20 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 VALOR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>825754.1923228747</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>815415.2488228746</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>859824.8970228747</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>838757.6037228747</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>838757.6037228747</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>766007.6703228747</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>676862.9298228747</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>370400.5999439807</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>394258.0692439807</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>757063.4856648484</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>778770.0151908721</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>795931.4997908721</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>772827.8536609545</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>732892.6863609545</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>816211.2672390523</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>815130.3707390523</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>808735.7285390523</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>821266.4228390523</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>830315.6944390523</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>820061.4336390522</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>816578.8202390522</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>807512.8038390522</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>788274.2889390523</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>785350.5956390522</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>812547.1629390522</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>808700.7850390523</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>807523.5853390523</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>801997.7832390523</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>736042.4798326874</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>758106.0476326874</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>771892.0182685285</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>771892.0182685285</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>778820.8633819189</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>763642.2150079189</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>753483.6429079189</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>716264.7856079189</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>353330.5641164</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>353286.2568164</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>338883.9869164</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>332402.9131092</v>
       </c>
       <c r="H994">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>352718.6827896</v>
       </c>
       <c r="H1002">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>352718.6827896</v>
       </c>
       <c r="H1003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>344539.6985896</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>392865.1299896</v>
       </c>
       <c r="H1011">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>397831.3015896</v>
       </c>
       <c r="H1012">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>373900.8440896</v>
       </c>
       <c r="H1020">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>371915.1029896</v>
       </c>
       <c r="H1022">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>371915.1029896</v>
       </c>
       <c r="H1023">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>370296.1126896</v>
       </c>
       <c r="H1025">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>368840.0957896</v>
       </c>
       <c r="H1027">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>371724.2685896001</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>375461.3660552445</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>367326.2834552444</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>370369.3201552444</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>364616.9694239557</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>364021.0231239556</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>394017.5113583112</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>386778.0854583113</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>387511.5651583113</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>387511.5651583113</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>387513.9039583113</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>385470.6382583113</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>382952.5417583113</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>372774.8640583113</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>375316.8064583113</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>377294.5636583113</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>383060.2334019915</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>371302.7751019915</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>375588.4158019915</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>375653.4991019915</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>375653.4898019916</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>388844.1709489151</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>402656.7841583113</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>423614.1684270006</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>397231.5914270007</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>399715.3476270007</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>399705.3476270007</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>399703.3476270007</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>399717.7389270007</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>397968.4103270007</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>397971.1461270007</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 VALOR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>825754.1923228747</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>815415.2488228746</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>859824.8970228747</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>838757.6037228747</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>838757.6037228747</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>766007.6703228747</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>676862.9298228747</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>370400.5999439807</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>394258.0692439807</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>859721.3619755737</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>783716.4681102213</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>832719.4624552071</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>804067.7056552072</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>841049.0906720947</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>775796.8052720947</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>778301.8282720947</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>757063.4856648484</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>778770.0151908721</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>795931.4997908721</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>778682.0603609545</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>772827.8536609545</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>732892.6863609545</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>758852.4356609546</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>757722.9142609546</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>764910.0213609546</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>816211.2672390523</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>815130.3707390523</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>808735.7285390523</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>821266.4228390523</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>830315.6944390523</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>820061.4336390522</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>816578.8202390522</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>807512.8038390522</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>788274.2889390523</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>785350.5956390522</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>812547.1629390522</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>808700.7850390523</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>807523.5853390523</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>801997.7832390523</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>736042.4798326874</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>758106.0476326874</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>745118.0685326874</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>778820.8633819189</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>353330.5641164</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>353286.2568164</v>
       </c>
       <c r="H991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>338883.9869164</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>338887.7869164</v>
       </c>
       <c r="H993">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>332395.3131092</v>
       </c>
       <c r="H996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>332405.7485092001</v>
       </c>
       <c r="H997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>352718.6827896</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>344539.6985896</v>
       </c>
       <c r="H1004">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>392865.1299896</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>391595.5191896</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>374202.4824896</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>373900.8440896</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>371915.1029896</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>371915.1029896</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>370296.1126896</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>366666.0340896</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>368840.0957896</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>367444.9511896</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>360600.5787896001</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>359944.9040896001</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>362121.0770896001</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>358019.7813896001</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>375653.4898019916</v>
       </c>
       <c r="H1064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>402656.7841583113</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>423614.1684270006</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>397231.5914270007</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>399715.3476270007</v>
       </c>
       <c r="H1081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>399705.3476270007</v>
       </c>
       <c r="H1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>399703.3476270007</v>
       </c>
       <c r="H1083">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>399717.7389270007</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>397968.4103270007</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>397971.1461270007</v>
       </c>
       <c r="H1086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
